--- a/Data Contract_Batch6.xlsx
+++ b/Data Contract_Batch6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Database Structure</t>
   </si>
@@ -135,13 +135,7 @@
     <t>Table Name : FavoriteAccounts</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>bank_account</t>
-  </si>
-  <si>
-    <t>Table Name : BankAccount</t>
   </si>
   <si>
     <t>bank_name</t>
@@ -180,6 +174,30 @@
   </si>
   <si>
     <t>{bankCode:int}</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Table Name : BankAccounts</t>
+  </si>
+  <si>
+    <t>Table Name : Users</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>payee_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favAccount_pk_fk </t>
+  </si>
+  <si>
+    <t>Fk</t>
   </si>
 </sst>
 </file>
@@ -649,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,10 +676,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:D22"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -703,17 +721,17 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>18</v>
@@ -724,9 +742,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -744,17 +766,17 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>1</v>
@@ -762,53 +784,105 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="8"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -824,8 +898,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -907,7 +981,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -922,7 +996,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>22</v>
@@ -933,7 +1007,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -959,7 +1033,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -985,7 +1059,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -1011,7 +1085,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="63" x14ac:dyDescent="0.25">
@@ -1023,10 +1097,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>27</v>
@@ -1037,7 +1111,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
